--- a/SHStudentScoreAvgReport/SHStudentScoreAvgReport/Template/高中各育成績總平均樣版.xlsx
+++ b/SHStudentScoreAvgReport/SHStudentScoreAvgReport/Template/高中各育成績總平均樣版.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChenCT\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjModules\ischoolDesktop\SH_Reports\SHStudentScoreAvgReport\SHStudentScoreAvgReport\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>名次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,10 @@
   </si>
   <si>
     <t>平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智育名次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,10 +118,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -400,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -412,51 +416,54 @@
     <col min="2" max="2" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="3" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
